--- a/data_processed/20250807/BTCUSDVOLSURFACE_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDVOLSURFACE_20250807.xlsx
@@ -13418,7 +13418,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -13447,7 +13447,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19307,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19336,7 +19336,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38894,7 +38894,7 @@
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38923,7 +38923,7 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45885,7 +45885,7 @@
       </c>
       <c r="G1716" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45914,7 +45914,7 @@
       </c>
       <c r="G1717" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45943,7 +45943,7 @@
       </c>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -45972,7 +45972,7 @@
       </c>
       <c r="G1719" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250807/BTCUSDVOLSURFACE_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDVOLSURFACE_20250807.xlsx
@@ -777,7 +777,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7595,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8408,7 +8408,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -13447,7 +13447,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19220,7 +19220,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19307,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -39860,7 +39860,7 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -39918,7 +39918,7 @@
       </c>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
